--- a/time-records/Ertel_Bernhard.xlsx
+++ b/time-records/Ertel_Bernhard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -68,6 +68,12 @@
     <t xml:space="preserve">Teammeeting</t>
   </si>
   <si>
+    <t xml:space="preserve">Implementierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update der Readme-files</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -90,9 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">Software/System Design und Architektur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung</t>
   </si>
   <si>
     <t xml:space="preserve">Tests</t>
@@ -352,7 +355,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -417,6 +420,15 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>44289</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6425,10 +6437,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6436,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6452,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6460,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,7 +6480,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,7 +6496,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,7 +6504,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,7 +6512,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6508,7 +6520,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/time-records/Ertel_Bernhard.xlsx
+++ b/time-records/Ertel_Bernhard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -74,6 +74,27 @@
     <t xml:space="preserve">update der Readme-files</t>
   </si>
   <si>
+    <t xml:space="preserve">Teammeeting: Mergen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einarbeitung in webSockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge in Master, update aktueller Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">websockets zum laufen bringen -(nullpointerexceptions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webSockets laufen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufteilung Issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webSockets erweitern auf cubeFace</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -108,13 +129,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="hh:mm"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -226,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,6 +286,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -355,12 +397,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.75"/>
@@ -422,7 +464,7 @@
         <v>44289</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>0.0625</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>8</v>
@@ -431,56 +473,109 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="10" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="14" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="4" t="n">
+        <v>44299</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="n">
+        <v>44300</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
-    </row>
+      <c r="A12" s="4" t="n">
+        <v>44300</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
@@ -521,7 +616,12 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <f aca="false">SUM(B2:B24)</f>
+        <v>0.979166666666667</v>
+      </c>
+    </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
@@ -6403,8 +6503,12 @@
       <c r="D1005" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C11:C20 C26:C1005" type="list">
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15:C20 C26:C1005" type="list">
+      <formula1>Tätigkeiten!$B$2:$B$12</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C8 C11:C12" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6430,17 +6534,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>11</v>
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6456,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6464,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6472,7 +6576,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6496,7 +6600,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,7 +6616,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6520,7 +6624,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/time-records/Ertel_Bernhard.xlsx
+++ b/time-records/Ertel_Bernhard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t xml:space="preserve">webSockets erweitern auf cubeFace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workshop Tests</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -397,12 +403,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.75"/>
@@ -488,7 +494,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="7" t="n">
         <v>44294</v>
       </c>
       <c r="B7" s="8" t="n">
@@ -515,7 +521,7 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="7" t="n">
         <v>44298</v>
       </c>
       <c r="B9" s="8" t="n">
@@ -568,14 +574,37 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>44306</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
@@ -616,12 +645,7 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
-        <f aca="false">SUM(B2:B24)</f>
-        <v>0.979166666666667</v>
-      </c>
-    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
@@ -6508,7 +6532,7 @@
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C8 C11:C12" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C8 C11:C12 C14" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6534,17 +6558,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6552,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,7 +6600,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,7 +6608,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,7 +6624,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6616,7 +6640,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6624,7 +6648,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/time-records/Ertel_Bernhard.xlsx
+++ b/time-records/Ertel_Bernhard.xlsx
@@ -135,14 +135,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="hh:mm"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -254,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,10 +308,6 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -403,10 +398,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
@@ -581,7 +576,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="7" t="n">
         <v>44305</v>
       </c>
       <c r="B13" s="8" t="n">
@@ -595,11 +590,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="7" t="n">
         <v>44306</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>6</v>
@@ -6558,16 +6553,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/time-records/Ertel_Bernhard.xlsx
+++ b/time-records/Ertel_Bernhard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t xml:space="preserve">Workshop Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testdrehbuch schreiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentation Würfelkonfiguration</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -398,10 +404,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
@@ -601,16 +607,30 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="4" t="n">
+        <v>44311</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.125</v>
+      </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="n">
+        <v>44311</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
@@ -6523,11 +6543,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15:C20 C26:C1005" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15 C17:C20 C26:C1005" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C8 C11:C12 C14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C8 C11:C12 C14 C16" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6553,17 +6573,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,7 +6607,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6619,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,7 +6655,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,7 +6663,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/time-records/Ertel_Bernhard.xlsx
+++ b/time-records/Ertel_Bernhard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -107,6 +107,18 @@
     <t xml:space="preserve">Präsentation Würfelkonfiguration</t>
   </si>
   <si>
+    <t xml:space="preserve">test for TermService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statusbesprechung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gameRoom erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webSockets for gameRoom</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -141,13 +153,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="hh:mm"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -259,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,6 +327,10 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -404,10 +421,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
@@ -633,31 +650,80 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="n">
+        <v>44312</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="n">
+        <v>44313</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="14" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A20" s="4" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
+        <v>44323</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6542,12 +6608,16 @@
       <c r="D1005" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15 C17:C20 C26:C1005" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15 C17 C20 C26:C1005" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C8 C11:C12 C14 C16" type="list">
+      <formula1>Tätigkeiten!$B$2:$B$12</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6573,17 +6643,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>22</v>
+      <c r="A1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,7 +6677,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,7 +6685,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,7 +6693,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,7 +6725,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,7 +6733,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/time-records/Ertel_Bernhard.xlsx
+++ b/time-records/Ertel_Bernhard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t xml:space="preserve">webSockets for gameRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¹:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete demo-packages</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -414,17 +420,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1005"/>
+  <dimension ref="A1:F1006"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
@@ -678,7 +684,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+      <c r="A19" s="7" t="n">
         <v>44314</v>
       </c>
       <c r="B19" s="8" t="n">
@@ -706,7 +712,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="7" t="n">
         <v>44322</v>
       </c>
       <c r="B21" s="8" t="n">
@@ -717,22 +723,46 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="7" t="n">
         <v>44323</v>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>0.0625</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
+        <v>44324</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
-    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
@@ -6607,9 +6637,15 @@
       <c r="C1005" s="9"/>
       <c r="D1005" s="6"/>
     </row>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="4"/>
+      <c r="B1006" s="5"/>
+      <c r="C1006" s="9"/>
+      <c r="D1006" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15 C17 C20 C26:C1005" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15 C17 C20 C27:C1006" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6643,17 +6679,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6669,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,7 +6721,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,7 +6729,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,7 +6761,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +6769,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
